--- a/lab3.xlsx
+++ b/lab3.xlsx
@@ -1,44 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEXP\Documents\!Учёба\Статистика\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64497AAC-36CE-4749-838B-E3426586B8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5F443F46-5418-429B-9F1E-E82EE4A50C5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 17" sheetId="1" r:id="rId1"/>
     <sheet name="Данные" sheetId="2" r:id="rId2"/>
     <sheet name="Величины" sheetId="4" r:id="rId3"/>
     <sheet name="Вычисления" sheetId="5" r:id="rId4"/>
-    <sheet name="Пункт 1" sheetId="3" r:id="rId5"/>
+    <sheet name="Графики" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="a0_degree">'Пункт 1'!$B$3</definedName>
-    <definedName name="a0_exp">'Пункт 1'!$B$5</definedName>
-    <definedName name="a0_linear">'Пункт 1'!$B$2</definedName>
-    <definedName name="a0_poly">'Пункт 1'!$B$4</definedName>
-    <definedName name="a1_degree">'Пункт 1'!$C$3</definedName>
-    <definedName name="a1_exp">'Пункт 1'!$C$5</definedName>
-    <definedName name="a1_linear">'Пункт 1'!$C$2</definedName>
-    <definedName name="a1_poly">'Пункт 1'!$C$4</definedName>
-    <definedName name="a2_poly">'Пункт 1'!$D$4</definedName>
+    <definedName name="a0_degree">Графики!$B$3</definedName>
+    <definedName name="a0_exp">Графики!$B$5</definedName>
+    <definedName name="a0_linear">Графики!$B$2</definedName>
+    <definedName name="a0_poly">Графики!$B$4</definedName>
+    <definedName name="a1_degree">Графики!$C$3</definedName>
+    <definedName name="a1_exp">Графики!$C$5</definedName>
+    <definedName name="a1_linear">Графики!$C$2</definedName>
+    <definedName name="a1_poly">Графики!$C$4</definedName>
+    <definedName name="a2_poly">Графики!$D$4</definedName>
     <definedName name="ln_X">Вычисления!$C$2:$C$21</definedName>
     <definedName name="ln_Y">Вычисления!$D$2:$D$21</definedName>
     <definedName name="n">Величины!$B$1</definedName>
     <definedName name="X">Данные!$B$2:$B$21</definedName>
     <definedName name="xi" localSheetId="1">Данные!$B1</definedName>
     <definedName name="Y">Данные!$C$2:$C$21</definedName>
+    <definedName name="Y_degree">Данные!$E$2:$E$21</definedName>
+    <definedName name="Y_exp">Данные!$G$2:$G$21</definedName>
+    <definedName name="Y_linear">Данные!$D$2:$D$21</definedName>
+    <definedName name="Y_poly">Данные!$F$2:$F$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>№</t>
   </si>
@@ -247,12 +245,15 @@
   <si>
     <t>Метод Гаусса для поиска коэффицентов полиномиальной апроксимации:</t>
   </si>
+  <si>
+    <t>corr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -331,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +344,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -361,25 +363,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -556,8 +546,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DA1B-4571-84A3-F434A2AB6EE5}"/>
             </c:ext>
@@ -727,8 +716,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DA1B-4571-84A3-F434A2AB6EE5}"/>
             </c:ext>
@@ -898,8 +886,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DA1B-4571-84A3-F434A2AB6EE5}"/>
             </c:ext>
@@ -1069,8 +1056,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA1B-4571-84A3-F434A2AB6EE5}"/>
             </c:ext>
@@ -1240,30 +1226,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DA1B-4571-84A3-F434A2AB6EE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="608649104"/>
-        <c:axId val="608649464"/>
+        <c:dLbls/>
+        <c:axId val="113680768"/>
+        <c:axId val="113682304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608649104"/>
+        <c:axId val="113680768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1281,7 +1258,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1316,16 +1292,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608649464"/>
+        <c:crossAx val="113682304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608649464"/>
+        <c:axId val="113682304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1343,7 +1318,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1378,7 +1352,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608649104"/>
+        <c:crossAx val="113680768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1392,7 +1366,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1423,14 +1397,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1459,38 +1432,27 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Пункт 1'!$I$1</c:f>
+              <c:f>Графики!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1525,7 +1487,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$H$2:$H$21</c:f>
+              <c:f>Графики!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1594,7 +1556,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$I$2:$I$21</c:f>
+              <c:f>Графики!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1661,8 +1623,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1C89-45A9-B3B1-67F5FEB71ED4}"/>
             </c:ext>
@@ -1673,7 +1634,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Пункт 1'!$J$1</c:f>
+              <c:f>Графики!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1696,7 +1657,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$H$2:$H$21</c:f>
+              <c:f>Графики!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1765,7 +1726,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$J$2:$J$21</c:f>
+              <c:f>Графики!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1832,30 +1793,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1C89-45A9-B3B1-67F5FEB71ED4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="610422520"/>
-        <c:axId val="608311320"/>
+        <c:dLbls/>
+        <c:axId val="160883072"/>
+        <c:axId val="160884608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="610422520"/>
+        <c:axId val="160883072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1873,7 +1825,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1908,16 +1859,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608311320"/>
+        <c:crossAx val="160884608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608311320"/>
+        <c:axId val="160884608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1935,7 +1885,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1970,7 +1919,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610422520"/>
+        <c:crossAx val="160883072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1984,7 +1933,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2015,14 +1964,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2051,38 +1999,27 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Пункт 1'!$M$1</c:f>
+              <c:f>Графики!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2117,7 +2054,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$L$2:$L$21</c:f>
+              <c:f>Графики!$L$2:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2186,7 +2123,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$M$2:$M$21</c:f>
+              <c:f>Графики!$M$2:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2253,8 +2190,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BE8E-4632-96D9-61AB187B8616}"/>
             </c:ext>
@@ -2265,7 +2201,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Пункт 1'!$N$1</c:f>
+              <c:f>Графики!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2288,7 +2224,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$L$2:$L$21</c:f>
+              <c:f>Графики!$L$2:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2357,7 +2293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$N$2:$N$21</c:f>
+              <c:f>Графики!$N$2:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2424,30 +2360,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BE8E-4632-96D9-61AB187B8616}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="656245400"/>
-        <c:axId val="656246120"/>
+        <c:dLbls/>
+        <c:axId val="160927744"/>
+        <c:axId val="160929280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="656245400"/>
+        <c:axId val="160927744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2465,7 +2392,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2500,16 +2426,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656246120"/>
+        <c:crossAx val="160929280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656246120"/>
+        <c:axId val="160929280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2527,7 +2452,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2562,7 +2486,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656245400"/>
+        <c:crossAx val="160927744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2576,7 +2500,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2607,14 +2531,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2643,38 +2566,27 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Пункт 1'!$Q$1</c:f>
+              <c:f>Графики!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2709,7 +2621,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$P$2:$P$21</c:f>
+              <c:f>Графики!$P$2:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2778,7 +2690,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$Q$2:$Q$21</c:f>
+              <c:f>Графики!$Q$2:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2845,8 +2757,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-638C-4F46-844D-2B58ED91A461}"/>
             </c:ext>
@@ -2857,7 +2768,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Пункт 1'!$R$1</c:f>
+              <c:f>Графики!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2880,7 +2791,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$P$2:$P$21</c:f>
+              <c:f>Графики!$P$2:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2949,7 +2860,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$R$2:$R$21</c:f>
+              <c:f>Графики!$R$2:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3016,30 +2927,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-638C-4F46-844D-2B58ED91A461}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="641181384"/>
-        <c:axId val="641182104"/>
+        <c:dLbls/>
+        <c:axId val="160984448"/>
+        <c:axId val="160998528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="641181384"/>
+        <c:axId val="160984448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3057,7 +2959,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3092,16 +2993,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641182104"/>
+        <c:crossAx val="160998528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="641182104"/>
+        <c:axId val="160998528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3119,7 +3019,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3154,7 +3053,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641181384"/>
+        <c:crossAx val="160984448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3168,7 +3067,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3199,14 +3098,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3235,38 +3133,27 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Пункт 1'!$U$1</c:f>
+              <c:f>Графики!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3301,7 +3188,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$T$2:$T$21</c:f>
+              <c:f>Графики!$T$2:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3370,7 +3257,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$U$2:$U$21</c:f>
+              <c:f>Графики!$U$2:$U$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3437,8 +3324,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C6E-4505-A3B2-8AF3A13010A4}"/>
             </c:ext>
@@ -3449,7 +3335,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Пункт 1'!$V$1</c:f>
+              <c:f>Графики!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3472,7 +3358,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$T$2:$T$21</c:f>
+              <c:f>Графики!$T$2:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3541,7 +3427,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Пункт 1'!$V$2:$V$21</c:f>
+              <c:f>Графики!$V$2:$V$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3608,30 +3494,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4C6E-4505-A3B2-8AF3A13010A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="641175624"/>
-        <c:axId val="641179224"/>
+        <c:dLbls/>
+        <c:axId val="161094656"/>
+        <c:axId val="161116928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="641175624"/>
+        <c:axId val="161094656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3649,7 +3526,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3684,16 +3560,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641179224"/>
+        <c:crossAx val="161116928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="641179224"/>
+        <c:axId val="161116928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3711,7 +3586,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3746,7 +3620,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641175624"/>
+        <c:crossAx val="161094656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3760,7 +3634,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3791,14 +3665,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3827,7 +3700,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6633,7 +6506,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A1EDAB-C14E-5F35-A3E3-47F4AD7EBADD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6A1EDAB-C14E-5F35-A3E3-47F4AD7EBADD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6674,7 +6547,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744A329E-6B1A-06A2-14D9-765C0B6127EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{744A329E-6B1A-06A2-14D9-765C0B6127EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6710,7 +6583,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBE0002-1FDB-164C-566C-9FFA6167E59F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FBE0002-1FDB-164C-566C-9FFA6167E59F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6746,7 +6619,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80F91F5-491E-B65C-9A45-EECC144BAE3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F80F91F5-491E-B65C-9A45-EECC144BAE3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6782,7 +6655,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D1A589-FDB0-0EDE-F219-1B8E5F5D4968}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8D1A589-FDB0-0EDE-F219-1B8E5F5D4968}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6998,23 +6871,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D98E01-7F3C-4295-98E2-ACE51CEB3146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7046,7 +6919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -7078,7 +6951,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -7110,7 +6983,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>11</v>
       </c>
@@ -7142,7 +7015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2.8</v>
       </c>
@@ -7174,7 +7047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3.2</v>
       </c>
@@ -7212,14 +7085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA2B1A2-963E-4256-A1C9-A0707DD98C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -7227,7 +7100,7 @@
     <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7250,7 +7123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7263,23 +7136,23 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D2">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ref="D2:D21" ca="1" si="0">a0_linear+a1_linear*xi</f>
         <v>1.0654938456919856</v>
       </c>
       <c r="E2">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ref="E2:E21" ca="1" si="1">a0_degree*xi^a1_degree</f>
         <v>0.82470707507650254</v>
       </c>
       <c r="F2">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ref="F2:F21" ca="1" si="2">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
         <v>1.0710898365564721</v>
       </c>
       <c r="G2">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ref="G2:G21" ca="1" si="3">EXP(a0_exp+a1_exp*xi)</f>
         <v>1.3016730666575789</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7292,23 +7165,23 @@
         <v>1.4</v>
       </c>
       <c r="D3">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.2806904833383379</v>
       </c>
       <c r="E3">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.2923509679002314</v>
       </c>
       <c r="F3">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.2842566411872824</v>
       </c>
       <c r="G3">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.4170481238005606</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7321,23 +7194,23 @@
         <v>1.3</v>
       </c>
       <c r="D4">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4958871209846902</v>
       </c>
       <c r="E4">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.6272171187533242</v>
       </c>
       <c r="F4">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.4976924338874786</v>
       </c>
       <c r="G4">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.542649561247259</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7350,23 +7223,23 @@
         <v>1.4</v>
       </c>
       <c r="D5">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6393515460822585</v>
       </c>
       <c r="E5">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.8153207191516965</v>
       </c>
       <c r="F5">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.6401324001706015</v>
       </c>
       <c r="G5">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6325095619423122</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7379,23 +7252,23 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.7828159711798266</v>
       </c>
       <c r="E6">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.985043884865813</v>
       </c>
       <c r="F6">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.7826919167067845</v>
       </c>
       <c r="G6">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.727603946341715</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7408,23 +7281,23 @@
         <v>2.1</v>
       </c>
       <c r="D7">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.9980126088261789</v>
       </c>
       <c r="E7">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.2145116660172937</v>
       </c>
       <c r="F7">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.9967553482355476</v>
       </c>
       <c r="G7">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.8807318008969558</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7437,23 +7310,23 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D8">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.2132092464725313</v>
       </c>
       <c r="E8">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.4215571354497891</v>
       </c>
       <c r="F8">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.2110877678336962</v>
       </c>
       <c r="G8">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.0474322916402206</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7466,23 +7339,23 @@
         <v>2.4</v>
       </c>
       <c r="D9">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.3566736715700993</v>
       </c>
       <c r="E9">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5499182460749581</v>
       </c>
       <c r="F9">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.3541254853821205</v>
       </c>
       <c r="G9">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.1666961035724079</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7495,23 +7368,23 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D10">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.5001380966676678</v>
       </c>
       <c r="E10">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.6718867682009235</v>
       </c>
       <c r="F10">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.4972827531836059</v>
       </c>
       <c r="G10">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2929070838650207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7524,23 +7397,23 @@
         <v>2.8</v>
       </c>
       <c r="D11">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.7153347343140197</v>
       </c>
       <c r="E11">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.8446845666110159</v>
       </c>
       <c r="F11">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.712242811610321</v>
       </c>
       <c r="G11">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4961411313388364</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7553,23 +7426,23 @@
         <v>3.2</v>
       </c>
       <c r="D12">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.9305313719603721</v>
       </c>
       <c r="E12">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.0071985087921917</v>
       </c>
       <c r="F12">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.9274718581064221</v>
       </c>
       <c r="G12">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.7173890260998981</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7582,23 +7455,23 @@
         <v>2.8</v>
       </c>
       <c r="D13">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.0739957970579406</v>
       </c>
       <c r="E13">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.1106479663616278</v>
       </c>
       <c r="F13">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.0711073269201483</v>
       </c>
       <c r="G13">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.8756781060751577</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7611,23 +7484,23 @@
         <v>3.3</v>
       </c>
       <c r="D14">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.2891924347042925</v>
       </c>
       <c r="E14">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.2594374955535033</v>
       </c>
       <c r="F14">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.2867846868652255</v>
       </c>
       <c r="G14">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.1305666294009011</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7640,23 +7513,23 @@
         <v>3.6</v>
       </c>
       <c r="D15">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.432656859801861</v>
       </c>
       <c r="E15">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.3548256693580822</v>
       </c>
       <c r="F15">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.4307190313116025</v>
       </c>
       <c r="G15">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.3129234825454534</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
@@ -7669,23 +7542,23 @@
         <v>3.4</v>
       </c>
       <c r="D16">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.576121284899429</v>
       </c>
       <c r="E16">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.4474734288246491</v>
       </c>
       <c r="F16">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.5747729260110406</v>
       </c>
       <c r="G16">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.5059027008479551</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7698,23 +7571,23 @@
         <v>3.8</v>
       </c>
       <c r="D17">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.7913179225457814</v>
       </c>
       <c r="E17">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.5817819920572656</v>
       </c>
       <c r="F17">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.7910779247846849</v>
       </c>
       <c r="G17">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.8166517935419599</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -7727,23 +7600,23 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.0065145601921337</v>
       </c>
       <c r="E18">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.7110466292283277</v>
       </c>
       <c r="F18">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.0076519116277147</v>
       </c>
       <c r="G18">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4.1549444340323118</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
@@ -7756,23 +7629,23 @@
         <v>4.2</v>
       </c>
       <c r="D19">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.1499789852897022</v>
       </c>
       <c r="E19">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.7946827454268455</v>
       </c>
       <c r="F19">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.1521840073393932</v>
       </c>
       <c r="G19">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4.3969717350534081</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -7785,23 +7658,23 @@
         <v>4.3</v>
       </c>
       <c r="D20">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.2934434103872707</v>
       </c>
       <c r="E20">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.8764444906107576</v>
       </c>
       <c r="F20">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.2968356533041323</v>
       </c>
       <c r="G20">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4.6530972304955309</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7814,19 +7687,19 @@
         <v>4.5</v>
       </c>
       <c r="D21">
-        <f ca="1">a0_linear+a1_linear*xi</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.5086400480336222</v>
       </c>
       <c r="E21">
-        <f ca="1">a0_degree*xi^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.995830050416072</v>
       </c>
       <c r="F21">
-        <f ca="1">a0_poly+a1_poly*xi+a2_poly*xi^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.5140372789757288</v>
       </c>
       <c r="G21">
-        <f ca="1">EXP(a0_exp+a1_exp*xi)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5.0655290250926113</v>
       </c>
     </row>
@@ -7837,19 +7710,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2340D43D-575F-4F13-9CF4-CBD5AC7A222B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7864,16 +7737,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B7BD98-41F0-495B-AF2A-FC89F7A14840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7887,13 +7760,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <f t="array" aca="1" ref="A2:A21" ca="1">X</f>
+        <f t="array" ref="A2:A21" ca="1">X</f>
         <v>0.2</v>
       </c>
       <c r="B2">
-        <f t="array" aca="1" ref="B2:B21" ca="1">Y</f>
+        <f t="array" ref="B2:B21" ca="1">Y</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="C2">
@@ -7905,7 +7778,7 @@
         <v>9.5310179804324935E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <f ca="1"/>
         <v>0.5</v>
@@ -7923,7 +7796,7 @@
         <v>0.33647223662121289</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <f ca="1"/>
         <v>0.8</v>
@@ -7941,7 +7814,7 @@
         <v>0.26236426446749106</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f ca="1"/>
         <v>1</v>
@@ -7959,7 +7832,7 @@
         <v>0.33647223662121289</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <f ca="1"/>
         <v>1.2</v>
@@ -7977,7 +7850,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <f ca="1"/>
         <v>1.5</v>
@@ -7995,7 +7868,7 @@
         <v>0.74193734472937733</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <f ca="1"/>
         <v>1.8</v>
@@ -8013,7 +7886,7 @@
         <v>0.83290912293510388</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <f ca="1"/>
         <v>2</v>
@@ -8031,7 +7904,7 @@
         <v>0.87546873735389985</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <f ca="1"/>
         <v>2.2000000000000002</v>
@@ -8049,7 +7922,7 @@
         <v>0.78845736036427028</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <f ca="1"/>
         <v>2.5</v>
@@ -8067,7 +7940,7 @@
         <v>1.0296194171811581</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <f ca="1"/>
         <v>2.8</v>
@@ -8085,7 +7958,7 @@
         <v>1.1631508098056809</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <f ca="1"/>
         <v>3</v>
@@ -8103,7 +7976,7 @@
         <v>1.0296194171811581</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <f ca="1"/>
         <v>3.3</v>
@@ -8121,7 +7994,7 @@
         <v>1.1939224684724346</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <f ca="1"/>
         <v>3.5</v>
@@ -8139,7 +8012,7 @@
         <v>1.2809338454620642</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <f ca="1"/>
         <v>3.7</v>
@@ -8157,7 +8030,7 @@
         <v>1.2237754316221157</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <f ca="1"/>
         <v>4</v>
@@ -8175,7 +8048,7 @@
         <v>1.33500106673234</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <f ca="1"/>
         <v>4.3</v>
@@ -8193,7 +8066,7 @@
         <v>1.3862943611198906</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <f ca="1"/>
         <v>4.5</v>
@@ -8211,7 +8084,7 @@
         <v>1.4350845252893227</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <f ca="1"/>
         <v>4.7</v>
@@ -8229,7 +8102,7 @@
         <v>1.4586150226995167</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <f ca="1"/>
         <v>5</v>
@@ -8253,20 +8126,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCB3779-7450-4629-BC5A-1EB09A060182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8279,6 +8152,9 @@
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8316,7 +8192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8328,56 +8204,64 @@
         <f ca="1">(n*SUMPRODUCT(X,Y)-SUM(X)*SUM(Y))/(n*SUMSQ(X)-SUM(X)^2)</f>
         <v>0.71732212548784102</v>
       </c>
+      <c r="E2">
+        <f ca="1">CORREL(Y,Y_linear)</f>
+        <v>0.9888725379330946</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">IF(E2=MAX($E$2:$E$5), "Лучшее", "")</f>
+        <v/>
+      </c>
       <c r="H2">
-        <f t="array" aca="1" ref="H2:H21" ca="1">X</f>
+        <f t="array" ref="H2:H21" ca="1">X</f>
         <v>0.2</v>
       </c>
       <c r="I2">
-        <f t="array" aca="1" ref="I2:I21" ca="1">Y</f>
+        <f t="array" ref="I2:I21" ca="1">Y</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J2">
-        <f ca="1">a0_linear+a1_linear*H2</f>
+        <f t="shared" ref="J2:J21" ca="1" si="0">a0_linear+a1_linear*H2</f>
         <v>1.0654938456919856</v>
       </c>
       <c r="L2">
-        <f t="array" aca="1" ref="L2:L21" ca="1">X</f>
+        <f t="array" ref="L2:L21" ca="1">X</f>
         <v>0.2</v>
       </c>
       <c r="M2">
-        <f t="array" aca="1" ref="M2:M21" ca="1">Y</f>
+        <f t="array" ref="M2:M21" ca="1">Y</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="N2">
-        <f ca="1">a0_degree*L2^a1_degree</f>
+        <f t="shared" ref="N2:N21" ca="1" si="1">a0_degree*L2^a1_degree</f>
         <v>0.82470707507650254</v>
       </c>
       <c r="P2">
-        <f t="array" aca="1" ref="P2:P21" ca="1">X</f>
+        <f t="array" ref="P2:P21" ca="1">X</f>
         <v>0.2</v>
       </c>
       <c r="Q2">
-        <f t="array" aca="1" ref="Q2:Q21" ca="1">Y</f>
+        <f t="array" ref="Q2:Q21" ca="1">Y</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="R2">
-        <f ca="1">a0_poly+a1_poly*P2+a2_poly*P2^2</f>
+        <f t="shared" ref="R2:R21" ca="1" si="2">a0_poly+a1_poly*P2+a2_poly*P2^2</f>
         <v>1.0710898365564721</v>
       </c>
       <c r="T2">
-        <f t="array" aca="1" ref="T2:T21" ca="1">X</f>
+        <f t="array" ref="T2:T21" ca="1">X</f>
         <v>0.2</v>
       </c>
       <c r="U2">
-        <f t="array" aca="1" ref="U2:U21" ca="1">Y</f>
+        <f t="array" ref="U2:U21" ca="1">Y</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="V2">
-        <f ca="1">EXP(a0_exp+a1_exp*T2)</f>
+        <f t="shared" ref="V2:V21" ca="1" si="3">EXP(a0_exp+a1_exp*T2)</f>
         <v>1.3016730666575789</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8389,6 +8273,14 @@
         <f ca="1">(n*SUMPRODUCT(ln_X,ln_Y)-SUM(ln_X)*SUM(ln_Y))/(n*SUMSQ(ln_X)-SUM(ln_X)^2)</f>
         <v>0.49022653622566598</v>
       </c>
+      <c r="E3">
+        <f ca="1">CORREL(Y,Y_degree)</f>
+        <v>0.97179939982027053</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F5" ca="1" si="4">IF(E3=MAX($E$2:$E$5), "Лучшее", "")</f>
+        <v/>
+      </c>
       <c r="H3">
         <f ca="1"/>
         <v>0.5</v>
@@ -8398,7 +8290,7 @@
         <v>1.4</v>
       </c>
       <c r="J3">
-        <f ca="1">a0_linear+a1_linear*H3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.2806904833383379</v>
       </c>
       <c r="L3">
@@ -8410,7 +8302,7 @@
         <v>1.4</v>
       </c>
       <c r="N3">
-        <f ca="1">a0_degree*L3^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.2923509679002314</v>
       </c>
       <c r="P3">
@@ -8422,7 +8314,7 @@
         <v>1.4</v>
       </c>
       <c r="R3">
-        <f ca="1">a0_poly+a1_poly*P3+a2_poly*P3^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.2842566411872824</v>
       </c>
       <c r="T3">
@@ -8434,11 +8326,11 @@
         <v>1.4</v>
       </c>
       <c r="V3">
-        <f ca="1">EXP(a0_exp+a1_exp*T3)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.4170481238005606</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8454,6 +8346,14 @@
         <f ca="1">E26/D26</f>
         <v>1.4943781632541983E-3</v>
       </c>
+      <c r="E4">
+        <f ca="1">CORREL(Y,Y_poly)</f>
+        <v>0.98887609492098283</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Лучшее</v>
+      </c>
       <c r="H4">
         <f ca="1"/>
         <v>0.8</v>
@@ -8463,7 +8363,7 @@
         <v>1.3</v>
       </c>
       <c r="J4">
-        <f ca="1">a0_linear+a1_linear*H4</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4958871209846902</v>
       </c>
       <c r="L4">
@@ -8475,7 +8375,7 @@
         <v>1.3</v>
       </c>
       <c r="N4">
-        <f ca="1">a0_degree*L4^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.6272171187533242</v>
       </c>
       <c r="P4">
@@ -8487,7 +8387,7 @@
         <v>1.3</v>
       </c>
       <c r="R4">
-        <f ca="1">a0_poly+a1_poly*P4+a2_poly*P4^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.4976924338874786</v>
       </c>
       <c r="T4">
@@ -8499,11 +8399,11 @@
         <v>1.3</v>
       </c>
       <c r="V4">
-        <f ca="1">EXP(a0_exp+a1_exp*T4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.542649561247259</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -8515,6 +8415,14 @@
         <f ca="1">(n*SUMPRODUCT(X,ln_Y)-SUM(X)*SUM(ln_Y))/(n*SUMSQ(X)-SUM(X)^2)</f>
         <v>0.28308503501529958</v>
       </c>
+      <c r="E5">
+        <f ca="1">CORREL(Y,Y_exp)</f>
+        <v>0.97358903955525478</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
       <c r="H5">
         <f ca="1"/>
         <v>1</v>
@@ -8524,7 +8432,7 @@
         <v>1.4</v>
       </c>
       <c r="J5">
-        <f ca="1">a0_linear+a1_linear*H5</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6393515460822585</v>
       </c>
       <c r="L5">
@@ -8536,7 +8444,7 @@
         <v>1.4</v>
       </c>
       <c r="N5">
-        <f ca="1">a0_degree*L5^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.8153207191516965</v>
       </c>
       <c r="P5">
@@ -8548,7 +8456,7 @@
         <v>1.4</v>
       </c>
       <c r="R5">
-        <f ca="1">a0_poly+a1_poly*P5+a2_poly*P5^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.6401324001706015</v>
       </c>
       <c r="T5">
@@ -8560,11 +8468,11 @@
         <v>1.4</v>
       </c>
       <c r="V5">
-        <f ca="1">EXP(a0_exp+a1_exp*T5)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6325095619423122</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="H6">
         <f ca="1"/>
         <v>1.2</v>
@@ -8574,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <f ca="1">a0_linear+a1_linear*H6</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.7828159711798266</v>
       </c>
       <c r="L6">
@@ -8586,7 +8494,7 @@
         <v>2</v>
       </c>
       <c r="N6">
-        <f ca="1">a0_degree*L6^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.985043884865813</v>
       </c>
       <c r="P6">
@@ -8598,7 +8506,7 @@
         <v>2</v>
       </c>
       <c r="R6">
-        <f ca="1">a0_poly+a1_poly*P6+a2_poly*P6^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.7826919167067845</v>
       </c>
       <c r="T6">
@@ -8610,11 +8518,11 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <f ca="1">EXP(a0_exp+a1_exp*T6)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.727603946341715</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -8627,7 +8535,7 @@
         <v>2.1</v>
       </c>
       <c r="J7">
-        <f ca="1">a0_linear+a1_linear*H7</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.9980126088261789</v>
       </c>
       <c r="L7">
@@ -8639,7 +8547,7 @@
         <v>2.1</v>
       </c>
       <c r="N7">
-        <f ca="1">a0_degree*L7^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.2145116660172937</v>
       </c>
       <c r="P7">
@@ -8651,7 +8559,7 @@
         <v>2.1</v>
       </c>
       <c r="R7">
-        <f ca="1">a0_poly+a1_poly*P7+a2_poly*P7^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1.9967553482355476</v>
       </c>
       <c r="T7">
@@ -8663,11 +8571,11 @@
         <v>2.1</v>
       </c>
       <c r="V7">
-        <f ca="1">EXP(a0_exp+a1_exp*T7)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.8807318008969558</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="B8">
         <f ca="1">n</f>
         <v>20</v>
@@ -8693,7 +8601,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J8">
-        <f ca="1">a0_linear+a1_linear*H8</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.2132092464725313</v>
       </c>
       <c r="L8">
@@ -8705,7 +8613,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N8">
-        <f ca="1">a0_degree*L8^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.4215571354497891</v>
       </c>
       <c r="P8">
@@ -8717,7 +8625,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="R8">
-        <f ca="1">a0_poly+a1_poly*P8+a2_poly*P8^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.2110877678336962</v>
       </c>
       <c r="T8">
@@ -8729,11 +8637,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="V8">
-        <f ca="1">EXP(a0_exp+a1_exp*T8)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.0474322916402206</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="B9">
         <f ca="1">SUM(X)</f>
         <v>52.5</v>
@@ -8759,7 +8667,7 @@
         <v>2.4</v>
       </c>
       <c r="J9">
-        <f ca="1">a0_linear+a1_linear*H9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.3566736715700993</v>
       </c>
       <c r="L9">
@@ -8771,7 +8679,7 @@
         <v>2.4</v>
       </c>
       <c r="N9">
-        <f ca="1">a0_degree*L9^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5499182460749581</v>
       </c>
       <c r="P9">
@@ -8783,7 +8691,7 @@
         <v>2.4</v>
       </c>
       <c r="R9">
-        <f ca="1">a0_poly+a1_poly*P9+a2_poly*P9^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.3541254853821205</v>
       </c>
       <c r="T9">
@@ -8795,11 +8703,11 @@
         <v>2.4</v>
       </c>
       <c r="V9">
-        <f ca="1">EXP(a0_exp+a1_exp*T9)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.1666961035724079</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="B10">
         <f ca="1">SUMSQ(X)</f>
         <v>179.45000000000002</v>
@@ -8825,7 +8733,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J10">
-        <f ca="1">a0_linear+a1_linear*H10</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.5001380966676678</v>
       </c>
       <c r="L10">
@@ -8837,7 +8745,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N10">
-        <f ca="1">a0_degree*L10^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.6718867682009235</v>
       </c>
       <c r="P10">
@@ -8849,7 +8757,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="R10">
-        <f ca="1">a0_poly+a1_poly*P10+a2_poly*P10^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.4972827531836059</v>
       </c>
       <c r="T10">
@@ -8861,11 +8769,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V10">
-        <f ca="1">EXP(a0_exp+a1_exp*T10)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2929070838650207</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="H11">
         <f ca="1"/>
         <v>2.5</v>
@@ -8875,7 +8783,7 @@
         <v>2.8</v>
       </c>
       <c r="J11">
-        <f ca="1">a0_linear+a1_linear*H11</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.7153347343140197</v>
       </c>
       <c r="L11">
@@ -8887,7 +8795,7 @@
         <v>2.8</v>
       </c>
       <c r="N11">
-        <f ca="1">a0_degree*L11^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.8446845666110159</v>
       </c>
       <c r="P11">
@@ -8899,7 +8807,7 @@
         <v>2.8</v>
       </c>
       <c r="R11">
-        <f ca="1">a0_poly+a1_poly*P11+a2_poly*P11^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.712242811610321</v>
       </c>
       <c r="T11">
@@ -8911,13 +8819,13 @@
         <v>2.8</v>
       </c>
       <c r="V11">
-        <f ca="1">EXP(a0_exp+a1_exp*T11)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4961411313388364</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="B12">
-        <f t="array" aca="1" ref="B12:E12" ca="1">B8:E8</f>
+        <f t="array" ref="B12:E12" ca="1">B8:E8</f>
         <v>20</v>
       </c>
       <c r="C12">
@@ -8941,7 +8849,7 @@
         <v>3.2</v>
       </c>
       <c r="J12">
-        <f ca="1">a0_linear+a1_linear*H12</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.9305313719603721</v>
       </c>
       <c r="L12">
@@ -8953,7 +8861,7 @@
         <v>3.2</v>
       </c>
       <c r="N12">
-        <f ca="1">a0_degree*L12^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.0071985087921917</v>
       </c>
       <c r="P12">
@@ -8965,7 +8873,7 @@
         <v>3.2</v>
       </c>
       <c r="R12">
-        <f ca="1">a0_poly+a1_poly*P12+a2_poly*P12^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.9274718581064221</v>
       </c>
       <c r="T12">
@@ -8977,11 +8885,11 @@
         <v>3.2</v>
       </c>
       <c r="V12">
-        <f ca="1">EXP(a0_exp+a1_exp*T12)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.7173890260998981</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="B13">
         <f t="array" aca="1" ref="B13:E13" ca="1">B9:E9/$B$9*$B$8</f>
         <v>20</v>
@@ -9007,7 +8915,7 @@
         <v>2.8</v>
       </c>
       <c r="J13">
-        <f ca="1">a0_linear+a1_linear*H13</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.0739957970579406</v>
       </c>
       <c r="L13">
@@ -9019,7 +8927,7 @@
         <v>2.8</v>
       </c>
       <c r="N13">
-        <f ca="1">a0_degree*L13^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.1106479663616278</v>
       </c>
       <c r="P13">
@@ -9031,7 +8939,7 @@
         <v>2.8</v>
       </c>
       <c r="R13">
-        <f ca="1">a0_poly+a1_poly*P13+a2_poly*P13^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.0711073269201483</v>
       </c>
       <c r="T13">
@@ -9043,11 +8951,11 @@
         <v>2.8</v>
       </c>
       <c r="V13">
-        <f ca="1">EXP(a0_exp+a1_exp*T13)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.8756781060751577</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="B14">
         <f t="array" aca="1" ref="B14:E14" ca="1">B10:E10/$B$10*$B$8</f>
         <v>20</v>
@@ -9073,7 +8981,7 @@
         <v>3.3</v>
       </c>
       <c r="J14">
-        <f ca="1">a0_linear+a1_linear*H14</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.2891924347042925</v>
       </c>
       <c r="L14">
@@ -9085,7 +8993,7 @@
         <v>3.3</v>
       </c>
       <c r="N14">
-        <f ca="1">a0_degree*L14^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.2594374955535033</v>
       </c>
       <c r="P14">
@@ -9097,7 +9005,7 @@
         <v>3.3</v>
       </c>
       <c r="R14">
-        <f ca="1">a0_poly+a1_poly*P14+a2_poly*P14^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.2867846868652255</v>
       </c>
       <c r="T14">
@@ -9109,11 +9017,11 @@
         <v>3.3</v>
       </c>
       <c r="V14">
-        <f ca="1">EXP(a0_exp+a1_exp*T14)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.1305666294009011</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="H15">
         <f ca="1"/>
         <v>3.5</v>
@@ -9123,7 +9031,7 @@
         <v>3.6</v>
       </c>
       <c r="J15">
-        <f ca="1">a0_linear+a1_linear*H15</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.432656859801861</v>
       </c>
       <c r="L15">
@@ -9135,7 +9043,7 @@
         <v>3.6</v>
       </c>
       <c r="N15">
-        <f ca="1">a0_degree*L15^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.3548256693580822</v>
       </c>
       <c r="P15">
@@ -9147,7 +9055,7 @@
         <v>3.6</v>
       </c>
       <c r="R15">
-        <f ca="1">a0_poly+a1_poly*P15+a2_poly*P15^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.4307190313116025</v>
       </c>
       <c r="T15">
@@ -9159,13 +9067,13 @@
         <v>3.6</v>
       </c>
       <c r="V15">
-        <f ca="1">EXP(a0_exp+a1_exp*T15)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.3129234825454534</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="B16">
-        <f t="array" aca="1" ref="B16:E16" ca="1">B12:E12</f>
+        <f t="array" ref="B16:E16" ca="1">B12:E12</f>
         <v>20</v>
       </c>
       <c r="C16">
@@ -9189,7 +9097,7 @@
         <v>3.4</v>
       </c>
       <c r="J16">
-        <f ca="1">a0_linear+a1_linear*H16</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.576121284899429</v>
       </c>
       <c r="L16">
@@ -9201,7 +9109,7 @@
         <v>3.4</v>
       </c>
       <c r="N16">
-        <f ca="1">a0_degree*L16^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.4474734288246491</v>
       </c>
       <c r="P16">
@@ -9213,7 +9121,7 @@
         <v>3.4</v>
       </c>
       <c r="R16">
-        <f ca="1">a0_poly+a1_poly*P16+a2_poly*P16^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.5747729260110406</v>
       </c>
       <c r="T16">
@@ -9225,13 +9133,13 @@
         <v>3.4</v>
       </c>
       <c r="V16">
-        <f ca="1">EXP(a0_exp+a1_exp*T16)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.5059027008479551</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22">
       <c r="B17">
-        <f t="array" aca="1" ref="B17:E17" ca="1">B13:E13-B12:E12</f>
+        <f t="array" ref="B17:E17" ca="1">B13:E13-B12:E12</f>
         <v>0</v>
       </c>
       <c r="C17">
@@ -9255,7 +9163,7 @@
         <v>3.8</v>
       </c>
       <c r="J17">
-        <f ca="1">a0_linear+a1_linear*H17</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.7913179225457814</v>
       </c>
       <c r="L17">
@@ -9267,7 +9175,7 @@
         <v>3.8</v>
       </c>
       <c r="N17">
-        <f ca="1">a0_degree*L17^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.5817819920572656</v>
       </c>
       <c r="P17">
@@ -9279,7 +9187,7 @@
         <v>3.8</v>
       </c>
       <c r="R17">
-        <f ca="1">a0_poly+a1_poly*P17+a2_poly*P17^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.7910779247846849</v>
       </c>
       <c r="T17">
@@ -9291,13 +9199,13 @@
         <v>3.8</v>
       </c>
       <c r="V17">
-        <f ca="1">EXP(a0_exp+a1_exp*T17)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.8166517935419599</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22">
       <c r="B18">
-        <f t="array" aca="1" ref="B18:E18" ca="1">B14:E14-B12:E12</f>
+        <f t="array" ref="B18:E18" ca="1">B14:E14-B12:E12</f>
         <v>0</v>
       </c>
       <c r="C18">
@@ -9321,7 +9229,7 @@
         <v>4</v>
       </c>
       <c r="J18">
-        <f ca="1">a0_linear+a1_linear*H18</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.0065145601921337</v>
       </c>
       <c r="L18">
@@ -9333,7 +9241,7 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <f ca="1">a0_degree*L18^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.7110466292283277</v>
       </c>
       <c r="P18">
@@ -9345,7 +9253,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f ca="1">a0_poly+a1_poly*P18+a2_poly*P18^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.0076519116277147</v>
       </c>
       <c r="T18">
@@ -9357,11 +9265,11 @@
         <v>4</v>
       </c>
       <c r="V18">
-        <f ca="1">EXP(a0_exp+a1_exp*T18)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4.1549444340323118</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22">
       <c r="H19">
         <f ca="1"/>
         <v>4.5</v>
@@ -9371,7 +9279,7 @@
         <v>4.2</v>
       </c>
       <c r="J19">
-        <f ca="1">a0_linear+a1_linear*H19</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.1499789852897022</v>
       </c>
       <c r="L19">
@@ -9383,7 +9291,7 @@
         <v>4.2</v>
       </c>
       <c r="N19">
-        <f ca="1">a0_degree*L19^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.7946827454268455</v>
       </c>
       <c r="P19">
@@ -9395,7 +9303,7 @@
         <v>4.2</v>
       </c>
       <c r="R19">
-        <f ca="1">a0_poly+a1_poly*P19+a2_poly*P19^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.1521840073393932</v>
       </c>
       <c r="T19">
@@ -9407,13 +9315,13 @@
         <v>4.2</v>
       </c>
       <c r="V19">
-        <f ca="1">EXP(a0_exp+a1_exp*T19)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4.3969717350534081</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22">
       <c r="B20">
-        <f t="array" aca="1" ref="B20:E20" ca="1">B16:E16</f>
+        <f t="array" ref="B20:E20" ca="1">B16:E16</f>
         <v>20</v>
       </c>
       <c r="C20">
@@ -9437,7 +9345,7 @@
         <v>4.3</v>
       </c>
       <c r="J20">
-        <f ca="1">a0_linear+a1_linear*H20</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.2934434103872707</v>
       </c>
       <c r="L20">
@@ -9449,7 +9357,7 @@
         <v>4.3</v>
       </c>
       <c r="N20">
-        <f ca="1">a0_degree*L20^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.8764444906107576</v>
       </c>
       <c r="P20">
@@ -9461,7 +9369,7 @@
         <v>4.3</v>
       </c>
       <c r="R20">
-        <f ca="1">a0_poly+a1_poly*P20+a2_poly*P20^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.2968356533041323</v>
       </c>
       <c r="T20">
@@ -9473,13 +9381,13 @@
         <v>4.3</v>
       </c>
       <c r="V20">
-        <f ca="1">EXP(a0_exp+a1_exp*T20)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4.6530972304955309</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22">
       <c r="B21">
-        <f t="array" aca="1" ref="B21:E21" ca="1">B17:E17</f>
+        <f t="array" ref="B21:E21" ca="1">B17:E17</f>
         <v>0</v>
       </c>
       <c r="C21">
@@ -9503,7 +9411,7 @@
         <v>4.5</v>
       </c>
       <c r="J21">
-        <f ca="1">a0_linear+a1_linear*H21</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.5086400480336222</v>
       </c>
       <c r="L21">
@@ -9515,7 +9423,7 @@
         <v>4.5</v>
       </c>
       <c r="N21">
-        <f ca="1">a0_degree*L21^a1_degree</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3.995830050416072</v>
       </c>
       <c r="P21">
@@ -9527,7 +9435,7 @@
         <v>4.5</v>
       </c>
       <c r="R21">
-        <f ca="1">a0_poly+a1_poly*P21+a2_poly*P21^2</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.5140372789757288</v>
       </c>
       <c r="T21">
@@ -9539,11 +9447,11 @@
         <v>4.5</v>
       </c>
       <c r="V21">
-        <f ca="1">EXP(a0_exp+a1_exp*T21)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5.0655290250926113</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22">
       <c r="B22">
         <f t="array" aca="1" ref="B22:E22" ca="1">B18:E18/$C$18*$C$17</f>
         <v>0</v>
@@ -9561,9 +9469,9 @@
         <v>11.385611202036744</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22">
       <c r="B24">
-        <f t="array" aca="1" ref="B24:E24" ca="1">B20:E20</f>
+        <f t="array" ref="B24:E24" ca="1">B20:E20</f>
         <v>20</v>
       </c>
       <c r="C24">
@@ -9579,9 +9487,9 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22">
       <c r="B25">
-        <f t="array" aca="1" ref="B25:E25" ca="1">B21:E21</f>
+        <f t="array" ref="B25:E25" ca="1">B21:E21</f>
         <v>0</v>
       </c>
       <c r="C25">
@@ -9597,9 +9505,9 @@
         <v>11.378095238095234</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22">
       <c r="B26">
-        <f t="array" aca="1" ref="B26:E26" ca="1">B22:E22-B21:E21</f>
+        <f t="array" ref="B26:E26" ca="1">B22:E22-B21:E21</f>
         <v>0</v>
       </c>
       <c r="C26">
